--- a/uploads/training/Data_-_consolidada.xlsx
+++ b/uploads/training/Data_-_consolidada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC89FA8-0678-4BFC-8A12-E23F65830E96}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1277DD5F-719D-4412-BAD0-149CA494434A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AE$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AE$240</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="371">
   <si>
     <t>Periodo</t>
   </si>
@@ -1045,6 +1045,114 @@
   </si>
   <si>
     <t>PORCENTAJE_asistencia</t>
+  </si>
+  <si>
+    <t>2023-2</t>
+  </si>
+  <si>
+    <t>2022-1</t>
+  </si>
+  <si>
+    <t>2022-2</t>
+  </si>
+  <si>
+    <t>2023-1</t>
+  </si>
+  <si>
+    <t>GUTIERREZ ZUZUNAGA, JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>CARLOS HUAMAN, CONSTANTINO</t>
+  </si>
+  <si>
+    <t>GALINDO PALOMINO, LUZ GABRIELA</t>
+  </si>
+  <si>
+    <t>VARGAS SALAZAR, DANNY JEANFRANCO</t>
+  </si>
+  <si>
+    <t>INCHI JIMENEZ, MERCEDES ARANZA</t>
+  </si>
+  <si>
+    <t>MARTINEZ QUINO, JACKELINE SUSAN</t>
+  </si>
+  <si>
+    <t>BAÑEZ PIZANGO, ESTEFANNY NAOMI</t>
+  </si>
+  <si>
+    <t>ZEVALLOS CALLA, ERICK SANTIAGO</t>
+  </si>
+  <si>
+    <t>MORENO HIDALGO, MANUEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MUÑOZ MARTINEZ, ENZO MAURICIO</t>
+  </si>
+  <si>
+    <t>CHUQUILLANQUI FABIAN, JORDY STIV</t>
+  </si>
+  <si>
+    <t>ORTIZ MORALES, DIEGO DONATTO</t>
+  </si>
+  <si>
+    <t>CASTRO BACA, STEPHANNY PATRICIA</t>
+  </si>
+  <si>
+    <t>GONZALES DE LA BARRA, SORA MILCA</t>
+  </si>
+  <si>
+    <t>REYES CADILLO, ALEJANDRO SANTIAGO</t>
+  </si>
+  <si>
+    <t>GAGO ARTEAGA, ELISABETH YESENIA</t>
+  </si>
+  <si>
+    <t>LINARES RAFAEL, MARLITA LIZETH</t>
+  </si>
+  <si>
+    <t>RAQUI URCO, FIORELA SOLEDAD</t>
+  </si>
+  <si>
+    <t>SANDOVAL YMAN, MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>NAVARRO ARMAS, ERIK VICTOR</t>
+  </si>
+  <si>
+    <t>CARRASCO LEON, GENARO JHAIR</t>
+  </si>
+  <si>
+    <t>CAMPOS JURUPE, LUIS ALEXANDER</t>
+  </si>
+  <si>
+    <t>TRAVEZAÑO MENDEZ, EDWIN MANUEL</t>
+  </si>
+  <si>
+    <t>COLQUEHUANCA VALDEZ, LIZA JHOSELYN</t>
+  </si>
+  <si>
+    <t>VARGAS VILLARAN, DANIEL FRANCISCO</t>
+  </si>
+  <si>
+    <t>CUEVA CHAQUILA, FRANK DENIS</t>
+  </si>
+  <si>
+    <t>Piura</t>
+  </si>
+  <si>
+    <t>Huarmaca</t>
+  </si>
+  <si>
+    <t>Piura/Huancabamba/Huarmaca</t>
+  </si>
+  <si>
+    <t>AC4N15SP</t>
+  </si>
+  <si>
+    <t>AC4N19SP</t>
+  </si>
+  <si>
+    <t>AC4N24SP</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE146"/>
+  <dimension ref="A1:AE240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="N229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q243" sqref="Q243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1537,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="7" max="9" width="20.5703125" customWidth="1"/>
     <col min="17" max="17" width="47.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="43.42578125" customWidth="1"/>
@@ -14741,8 +14850,8280 @@
         <v>55</v>
       </c>
     </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>335</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2023201450</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F147" s="2">
+        <v>20</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J147" s="2" t="str">
+        <f>MID(B147,1,5)</f>
+        <v>20232</v>
+      </c>
+      <c r="K147" s="2">
+        <v>25</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N147" s="2">
+        <v>5</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R147" s="2">
+        <v>12</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U147" t="s">
+        <v>230</v>
+      </c>
+      <c r="V147" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W147" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X147" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y147" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z147" s="9">
+        <f>Y147*0.01</f>
+        <v>0.19</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB147" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD147" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2023201762</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F148" s="2">
+        <v>22</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J148" s="2" t="str">
+        <f t="shared" ref="J148:J211" si="6">MID(B148,1,5)</f>
+        <v>20232</v>
+      </c>
+      <c r="K148" s="2">
+        <v>25</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N148" s="2">
+        <v>5</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R148" s="2">
+        <v>13</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U148" t="s">
+        <v>230</v>
+      </c>
+      <c r="V148" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W148" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X148" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y148" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z148" s="9">
+        <f t="shared" ref="Z148:Z211" si="7">Y148*0.01</f>
+        <v>0.19</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB148" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC148" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD148" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2023202139</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" s="2">
+        <v>22</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J149" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K149" s="2">
+        <v>25</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N149" s="2">
+        <v>4</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R149" s="2">
+        <v>14</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U149" t="s">
+        <v>236</v>
+      </c>
+      <c r="V149" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W149" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X149" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y149" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z149" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA149" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB149" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC149" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD149" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>335</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2023202395</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="2">
+        <v>22</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J150" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K150" s="2">
+        <v>25</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N150" s="2">
+        <v>5</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R150" s="2">
+        <v>14</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U150" t="s">
+        <v>230</v>
+      </c>
+      <c r="V150" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W150" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X150" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y150" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z150" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD150" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>224</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2024101779</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F151" s="2">
+        <v>18</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J151" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K151" s="2">
+        <v>25</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N151" s="2">
+        <v>5</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R151" s="2">
+        <v>13</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U151" t="s">
+        <v>236</v>
+      </c>
+      <c r="V151" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W151" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X151" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y151" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z151" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD151" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2024103703</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152" s="2">
+        <v>18</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J152" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K152" s="2">
+        <v>25</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N152" s="2">
+        <v>5</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R152" s="2">
+        <v>13</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U152" t="s">
+        <v>236</v>
+      </c>
+      <c r="V152" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W152" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X152" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y152" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z152" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD152" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2024103790</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F153" s="2">
+        <v>18</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J153" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K153" s="2">
+        <v>25</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N153" s="2">
+        <v>4</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R153" s="2">
+        <v>11</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U153" t="s">
+        <v>230</v>
+      </c>
+      <c r="V153" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W153" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X153" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y153" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z153" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD153" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2024105719</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F154" s="2">
+        <v>19</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J154" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K154" s="2">
+        <v>25</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N154" s="2">
+        <v>5</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R154" s="2">
+        <v>11</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U154" t="s">
+        <v>236</v>
+      </c>
+      <c r="V154" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W154" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X154" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y154" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z154" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA154" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB154" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC154" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD154" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2024102090</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F155" s="2">
+        <v>19</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J155" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K155" s="2">
+        <v>44</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N155" s="2">
+        <v>4</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R155" s="2">
+        <v>13</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U155" t="s">
+        <v>230</v>
+      </c>
+      <c r="V155" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W155" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X155" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y155" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z155" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD155" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2022104509</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156" s="2">
+        <v>20</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J156" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20221</v>
+      </c>
+      <c r="K156" s="2">
+        <v>65</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N156" s="2">
+        <v>5</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R156" s="2">
+        <v>12</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U156" t="s">
+        <v>236</v>
+      </c>
+      <c r="V156" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W156" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X156" s="6">
+        <v>8</v>
+      </c>
+      <c r="Y156" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z156" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD156" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2022200938</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F157" s="2">
+        <v>25</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J157" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20222</v>
+      </c>
+      <c r="K157" s="2">
+        <v>65</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N157" s="2">
+        <v>4</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R157" s="2">
+        <v>12</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U157" t="s">
+        <v>236</v>
+      </c>
+      <c r="V157" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W157" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X157" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y157" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z157" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD157" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2023100415</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F158" s="2">
+        <v>33</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J158" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20231</v>
+      </c>
+      <c r="K158" s="2">
+        <v>65</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N158" s="2">
+        <v>5</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R158" s="2">
+        <v>14</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U158" t="s">
+        <v>236</v>
+      </c>
+      <c r="V158" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W158" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X158" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y158" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z158" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD158" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2023104527</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F159" s="2">
+        <v>23</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J159" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20231</v>
+      </c>
+      <c r="K159" s="2">
+        <v>65</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N159" s="2">
+        <v>5</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R159" s="2">
+        <v>15</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U159" t="s">
+        <v>236</v>
+      </c>
+      <c r="V159" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W159" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X159" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y159" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z159" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD159" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>335</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2023200094</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="2">
+        <v>20</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K160" s="2">
+        <v>65</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N160" s="2">
+        <v>5</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R160" s="2">
+        <v>15</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U160" t="s">
+        <v>236</v>
+      </c>
+      <c r="V160" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W160" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X160" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y160" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z160" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD160" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>335</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2023200893</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F161" s="2">
+        <v>24</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J161" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K161" s="2">
+        <v>65</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N161" s="2">
+        <v>5</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R161" s="2">
+        <v>15</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U161" t="s">
+        <v>236</v>
+      </c>
+      <c r="V161" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W161" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X161" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y161" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z161" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD161" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2023200917</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F162" s="2">
+        <v>21</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J162" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K162" s="2">
+        <v>65</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N162" s="2">
+        <v>5</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R162" s="2">
+        <v>14</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U162" t="s">
+        <v>236</v>
+      </c>
+      <c r="V162" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W162" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X162" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y162" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z162" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD162" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>335</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2023201385</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F163" s="2">
+        <v>19</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J163" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K163" s="2">
+        <v>65</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N163" s="2">
+        <v>5</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R163" s="2">
+        <v>12</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U163" t="s">
+        <v>236</v>
+      </c>
+      <c r="V163" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W163" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X163" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y163" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z163" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD163" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>335</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2023201546</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F164" s="2">
+        <v>52</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J164" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K164" s="2">
+        <v>65</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N164" s="2">
+        <v>5</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R164" s="2">
+        <v>11</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U164" t="s">
+        <v>236</v>
+      </c>
+      <c r="V164" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W164" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X164" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y164" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z164" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD164" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2023201611</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F165" s="2">
+        <v>28</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J165" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K165" s="2">
+        <v>65</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N165" s="2">
+        <v>5</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R165" s="2">
+        <v>14</v>
+      </c>
+      <c r="S165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U165" t="s">
+        <v>236</v>
+      </c>
+      <c r="V165" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W165" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X165" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y165" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z165" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD165" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>335</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2023201668</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F166" s="2">
+        <v>20</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J166" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K166" s="2">
+        <v>65</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N166" s="2">
+        <v>5</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q166" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R166" s="2">
+        <v>11</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U166" t="s">
+        <v>236</v>
+      </c>
+      <c r="V166" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W166" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X166" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y166" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z166" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA166" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB166" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC166" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD166" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2023201690</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F167" s="2">
+        <v>20</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J167" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K167" s="2">
+        <v>65</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N167" s="2">
+        <v>4</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q167" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R167" s="2">
+        <v>12</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U167" t="s">
+        <v>236</v>
+      </c>
+      <c r="V167" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W167" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X167" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y167" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z167" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD167" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2023201745</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" s="2">
+        <v>53</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J168" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K168" s="2">
+        <v>65</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N168" s="2">
+        <v>5</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q168" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R168" s="2">
+        <v>14</v>
+      </c>
+      <c r="S168" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U168" t="s">
+        <v>236</v>
+      </c>
+      <c r="V168" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W168" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X168" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y168" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z168" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD168" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2023202442</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F169" s="2">
+        <v>19</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J169" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K169" s="2">
+        <v>65</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N169" s="2">
+        <v>5</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R169" s="2">
+        <v>14</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T169" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U169" t="s">
+        <v>236</v>
+      </c>
+      <c r="V169" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W169" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X169" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y169" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z169" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD169" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2023202686</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F170" s="2">
+        <v>24</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J170" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K170" s="2">
+        <v>65</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N170" s="2">
+        <v>4</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R170" s="2">
+        <v>13</v>
+      </c>
+      <c r="S170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T170" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U170" t="s">
+        <v>236</v>
+      </c>
+      <c r="V170" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W170" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X170" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y170" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z170" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD170" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2024100130</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F171" s="2">
+        <v>44</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J171" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K171" s="2">
+        <v>65</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N171" s="2">
+        <v>5</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R171" s="2">
+        <v>13</v>
+      </c>
+      <c r="S171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U171" t="s">
+        <v>236</v>
+      </c>
+      <c r="V171" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W171" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X171" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y171" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z171" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD171" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2024100569</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F172" s="2">
+        <v>19</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J172" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K172" s="2">
+        <v>65</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N172" s="2">
+        <v>5</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R172" s="2">
+        <v>11</v>
+      </c>
+      <c r="S172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T172" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U172" t="s">
+        <v>236</v>
+      </c>
+      <c r="V172" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W172" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X172" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y172" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z172" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD172" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2024101174</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" s="2">
+        <v>19</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J173" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K173" s="2">
+        <v>65</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N173" s="2">
+        <v>5</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q173" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R173" s="2">
+        <v>12</v>
+      </c>
+      <c r="S173" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T173" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U173" t="s">
+        <v>236</v>
+      </c>
+      <c r="V173" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W173" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X173" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y173" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z173" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA173" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB173" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC173" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD173" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2024101802</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F174" s="2">
+        <v>18</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J174" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K174" s="2">
+        <v>65</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N174" s="2">
+        <v>4</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R174" s="2">
+        <v>14</v>
+      </c>
+      <c r="S174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T174" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U174" t="s">
+        <v>236</v>
+      </c>
+      <c r="V174" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W174" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X174" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y174" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z174" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD174" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>224</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2024102530</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F175" s="2">
+        <v>18</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J175" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K175" s="2">
+        <v>65</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N175" s="2">
+        <v>5</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q175" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R175" s="2">
+        <v>10</v>
+      </c>
+      <c r="S175" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T175" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U175" t="s">
+        <v>236</v>
+      </c>
+      <c r="V175" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W175" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X175" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y175" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z175" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD175" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2024102665</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F176" s="2">
+        <v>40</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J176" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K176" s="2">
+        <v>65</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N176" s="2">
+        <v>6</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R176" s="2">
+        <v>10</v>
+      </c>
+      <c r="S176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T176" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U176" t="s">
+        <v>236</v>
+      </c>
+      <c r="V176" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W176" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X176" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y176" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z176" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD176" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2024103240</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F177" s="2">
+        <v>19</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J177" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K177" s="2">
+        <v>65</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N177" s="2">
+        <v>5</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R177" s="2">
+        <v>14</v>
+      </c>
+      <c r="S177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T177" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U177" t="s">
+        <v>236</v>
+      </c>
+      <c r="V177" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W177" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X177" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y177" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z177" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD177" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>224</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2024103568</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F178" s="2">
+        <v>19</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J178" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K178" s="2">
+        <v>65</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N178" s="2">
+        <v>4</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q178" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R178" s="2">
+        <v>14</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T178" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U178" t="s">
+        <v>236</v>
+      </c>
+      <c r="V178" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W178" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X178" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y178" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z178" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD178" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>224</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2024105404</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F179" s="2">
+        <v>21</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J179" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K179" s="2">
+        <v>65</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N179" s="2">
+        <v>4</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R179" s="2">
+        <v>12</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T179" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U179" t="s">
+        <v>236</v>
+      </c>
+      <c r="V179" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W179" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X179" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y179" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z179" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD179" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2024105577</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F180" s="2">
+        <v>17</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J180" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K180" s="2">
+        <v>65</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N180" s="2">
+        <v>4</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R180" s="2">
+        <v>14</v>
+      </c>
+      <c r="S180" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T180" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U180" t="s">
+        <v>236</v>
+      </c>
+      <c r="V180" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W180" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X180" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y180" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z180" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA180" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB180" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC180" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD180" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2024105715</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F181" s="2">
+        <v>20</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J181" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K181" s="2">
+        <v>65</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N181" s="2">
+        <v>5</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R181" s="2">
+        <v>11</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T181" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U181" t="s">
+        <v>236</v>
+      </c>
+      <c r="V181" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W181" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X181" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y181" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z181" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD181" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" s="2">
+        <v>2024106550</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F182" s="2">
+        <v>41</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J182" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K182" s="2">
+        <v>65</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N182" s="2">
+        <v>5</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R182" s="2">
+        <v>12</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T182" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U182" t="s">
+        <v>236</v>
+      </c>
+      <c r="V182" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W182" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X182" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y182" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z182" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD182" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>224</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2024106608</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F183" s="2">
+        <v>18</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J183" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K183" s="2">
+        <v>65</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N183" s="2">
+        <v>5</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R183" s="2">
+        <v>14</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T183" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U183" t="s">
+        <v>236</v>
+      </c>
+      <c r="V183" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W183" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X183" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y183" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z183" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD183" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>225</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2024201789</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F184" s="2">
+        <v>38</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J184" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20242</v>
+      </c>
+      <c r="K184" s="2">
+        <v>65</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N184" s="2">
+        <v>5</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R184" s="2">
+        <v>14</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T184" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U184" t="s">
+        <v>236</v>
+      </c>
+      <c r="V184" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W184" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X184" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y184" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z184" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD184" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>225</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2024203012</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F185" s="2">
+        <v>18</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J185" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20242</v>
+      </c>
+      <c r="K185" s="2">
+        <v>65</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N185" s="2">
+        <v>5</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R185" s="2">
+        <v>14</v>
+      </c>
+      <c r="S185" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T185" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U185" t="s">
+        <v>236</v>
+      </c>
+      <c r="V185" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W185" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X185" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y185" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z185" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD185" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2024105028</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F186" s="2">
+        <v>23</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J186" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K186" s="2">
+        <v>68</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N186" s="2">
+        <v>4</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R186" s="2">
+        <v>10</v>
+      </c>
+      <c r="S186" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T186" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U186" t="s">
+        <v>236</v>
+      </c>
+      <c r="V186" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W186" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X186" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y186" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z186" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD186" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>224</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2024105950</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F187" s="2">
+        <v>21</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J187" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K187" s="2">
+        <v>68</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N187" s="2">
+        <v>4</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R187" s="2">
+        <v>16</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T187" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U187" t="s">
+        <v>236</v>
+      </c>
+      <c r="V187" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W187" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X187" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y187" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z187" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD187" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>224</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2024106142</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F188" s="2">
+        <v>23</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J188" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K188" s="2">
+        <v>68</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N188" s="2">
+        <v>4</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R188" s="2">
+        <v>12</v>
+      </c>
+      <c r="S188" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T188" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U188" t="s">
+        <v>236</v>
+      </c>
+      <c r="V188" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W188" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X188" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y188" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z188" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD188" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>225</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2024200130</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F189" s="2">
+        <v>24</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J189" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20242</v>
+      </c>
+      <c r="K189" s="2">
+        <v>68</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N189" s="2">
+        <v>4</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R189" s="2">
+        <v>13</v>
+      </c>
+      <c r="S189" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T189" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U189" t="s">
+        <v>236</v>
+      </c>
+      <c r="V189" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W189" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X189" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y189" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z189" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD189" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>224</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2024100781</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F190" s="2">
+        <v>21</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J190" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K190" s="2">
+        <v>1</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N190" s="2">
+        <v>4</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P190" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R190" s="2">
+        <v>12</v>
+      </c>
+      <c r="S190" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T190" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U190" t="s">
+        <v>230</v>
+      </c>
+      <c r="V190" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W190" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X190" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y190" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z190" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD190" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>224</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2024101982</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F191" s="2">
+        <v>19</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J191" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N191" s="2">
+        <v>5</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R191" s="2">
+        <v>15</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T191" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U191" t="s">
+        <v>236</v>
+      </c>
+      <c r="V191" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W191" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X191" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y191" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z191" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD191" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2024102282</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F192" s="2">
+        <v>18</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J192" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K192" s="2">
+        <v>1</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N192" s="2">
+        <v>5</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q192" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R192" s="2">
+        <v>11</v>
+      </c>
+      <c r="S192" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T192" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U192" t="s">
+        <v>230</v>
+      </c>
+      <c r="V192" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W192" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X192" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y192" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z192" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD192" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2024102711</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F193" s="2">
+        <v>18</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J193" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K193" s="2">
+        <v>1</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N193" s="2">
+        <v>5</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R193" s="2">
+        <v>14</v>
+      </c>
+      <c r="S193" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T193" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U193" t="s">
+        <v>236</v>
+      </c>
+      <c r="V193" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W193" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X193" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y193" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z193" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD193" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2024106505</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F194" s="2">
+        <v>22</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J194" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K194" s="2">
+        <v>1</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N194" s="2">
+        <v>4</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P194" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R194" s="2">
+        <v>14</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T194" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U194" t="s">
+        <v>230</v>
+      </c>
+      <c r="V194" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W194" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X194" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y194" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z194" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD194" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2024201587</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F195" s="2">
+        <v>19</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J195" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20242</v>
+      </c>
+      <c r="K195" s="2">
+        <v>1</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N195" s="2">
+        <v>5</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R195" s="2">
+        <v>13</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T195" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U195" t="s">
+        <v>236</v>
+      </c>
+      <c r="V195" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W195" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X195" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y195" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z195" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD195" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2022200871</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F196" s="2">
+        <v>20</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J196" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20222</v>
+      </c>
+      <c r="K196" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N196" s="2">
+        <v>5</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P196" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R196" s="2">
+        <v>11</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T196" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U196" t="s">
+        <v>230</v>
+      </c>
+      <c r="V196" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W196" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X196" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y196" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z196" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD196" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>337</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2022202856</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F197" s="2">
+        <v>19</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J197" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20222</v>
+      </c>
+      <c r="K197" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N197" s="2">
+        <v>5</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R197" s="2">
+        <v>6</v>
+      </c>
+      <c r="S197" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T197" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U197" t="s">
+        <v>230</v>
+      </c>
+      <c r="V197" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W197" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X197" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y197" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z197" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD197" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>335</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2023200074</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F198" s="2">
+        <v>29</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J198" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K198" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N198" s="2">
+        <v>5</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P198" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R198" s="2">
+        <v>14</v>
+      </c>
+      <c r="S198" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T198" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U198" t="s">
+        <v>236</v>
+      </c>
+      <c r="V198" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W198" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X198" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y198" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z198" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD198" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>335</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2023200772</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F199" s="2">
+        <v>20</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J199" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K199" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N199" s="2">
+        <v>4</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R199" s="2">
+        <v>3</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T199" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U199" t="s">
+        <v>230</v>
+      </c>
+      <c r="V199" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W199" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X199" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y199" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z199" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD199" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>335</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2023201337</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F200" s="2">
+        <v>23</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J200" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K200" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N200" s="2">
+        <v>5</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R200" s="2">
+        <v>13</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T200" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U200" t="s">
+        <v>236</v>
+      </c>
+      <c r="V200" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W200" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X200" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y200" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z200" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD200" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>335</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2023201557</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F201" s="2">
+        <v>23</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J201" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K201" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N201" s="2">
+        <v>5</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R201" s="2">
+        <v>13</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T201" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U201" t="s">
+        <v>230</v>
+      </c>
+      <c r="V201" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W201" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X201" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y201" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z201" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD201" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>335</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2023201618</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F202" s="2">
+        <v>20</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J202" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K202" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N202" s="2">
+        <v>5</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R202" s="2">
+        <v>8</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T202" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U202" t="s">
+        <v>230</v>
+      </c>
+      <c r="V202" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W202" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X202" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y202" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z202" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD202" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2024100968</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F203" s="2">
+        <v>18</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J203" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K203" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N203" s="2">
+        <v>4</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R203" s="2">
+        <v>11</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T203" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U203" t="s">
+        <v>230</v>
+      </c>
+      <c r="V203" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W203" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X203" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y203" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z203" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD203" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2024103197</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F204" s="2">
+        <v>35</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J204" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K204" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N204" s="2">
+        <v>3</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R204" s="2">
+        <v>4</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T204" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U204" t="s">
+        <v>230</v>
+      </c>
+      <c r="V204" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W204" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X204" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y204" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z204" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD204" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2024103176</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F205" s="2">
+        <v>19</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J205" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K205" s="2">
+        <v>1569</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N205" s="2">
+        <v>4</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q205" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R205" s="2">
+        <v>14</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T205" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U205" t="s">
+        <v>236</v>
+      </c>
+      <c r="V205" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W205" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X205" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y205" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z205" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD205" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2024103613</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F206" s="2">
+        <v>19</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J206" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20241</v>
+      </c>
+      <c r="K206" s="2">
+        <v>1569</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N206" s="2">
+        <v>3</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R206" s="2">
+        <v>0</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T206" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U206" t="s">
+        <v>236</v>
+      </c>
+      <c r="V206" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W206" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X206" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y206" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z206" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD206" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>335</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2023200222</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F207" s="2">
+        <v>28</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J207" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K207" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N207" s="2">
+        <v>5</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P207" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q207" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R207" s="2">
+        <v>12</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T207" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U207" t="s">
+        <v>236</v>
+      </c>
+      <c r="V207" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W207" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X207" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y207" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z207" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD207" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>335</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2023200323</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F208" s="2">
+        <v>28</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J208" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K208" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N208" s="2">
+        <v>5</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P208" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q208" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R208" s="2">
+        <v>12</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T208" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U208" t="s">
+        <v>236</v>
+      </c>
+      <c r="V208" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W208" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X208" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y208" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z208" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD208" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>335</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2023201720</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F209" s="2">
+        <v>53</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J209" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K209" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N209" s="2">
+        <v>4</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P209" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R209" s="2">
+        <v>16</v>
+      </c>
+      <c r="S209" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T209" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U209" t="s">
+        <v>236</v>
+      </c>
+      <c r="V209" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W209" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X209" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y209" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z209" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD209" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>335</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2023202103</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F210" s="2">
+        <v>38</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J210" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K210" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N210" s="2">
+        <v>4</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R210" s="2">
+        <v>17</v>
+      </c>
+      <c r="S210" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T210" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U210" t="s">
+        <v>236</v>
+      </c>
+      <c r="V210" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W210" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X210" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y210" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z210" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD210" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>335</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2023202691</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F211" s="2">
+        <v>22</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J211" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20232</v>
+      </c>
+      <c r="K211" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N211" s="2">
+        <v>4</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R211" s="2">
+        <v>14</v>
+      </c>
+      <c r="S211" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T211" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U211" t="s">
+        <v>236</v>
+      </c>
+      <c r="V211" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W211" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X211" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y211" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z211" s="9">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD211" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2024100429</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F212" s="2">
+        <v>18</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J212" s="2" t="str">
+        <f t="shared" ref="J212:J240" si="8">MID(B212,1,5)</f>
+        <v>20241</v>
+      </c>
+      <c r="K212" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L212" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N212" s="2">
+        <v>5</v>
+      </c>
+      <c r="O212" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P212" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q212" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R212" s="2">
+        <v>13</v>
+      </c>
+      <c r="S212" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T212" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U212" t="s">
+        <v>236</v>
+      </c>
+      <c r="V212" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W212" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X212" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y212" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z212" s="9">
+        <f t="shared" ref="Z212:Z240" si="9">Y212*0.01</f>
+        <v>0.19</v>
+      </c>
+      <c r="AA212" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB212" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC212" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD212" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213" s="2">
+        <v>2024100592</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F213" s="2">
+        <v>20</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J213" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K213" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N213" s="2">
+        <v>4</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q213" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R213" s="2">
+        <v>13</v>
+      </c>
+      <c r="S213" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T213" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U213" t="s">
+        <v>236</v>
+      </c>
+      <c r="V213" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W213" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X213" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y213" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z213" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD213" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>224</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2024102113</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F214" s="2">
+        <v>38</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J214" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K214" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L214" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N214" s="2">
+        <v>5</v>
+      </c>
+      <c r="O214" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P214" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q214" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R214" s="2">
+        <v>17</v>
+      </c>
+      <c r="S214" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T214" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U214" t="s">
+        <v>236</v>
+      </c>
+      <c r="V214" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W214" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X214" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y214" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z214" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD214" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2024102603</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F215" s="2">
+        <v>66</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J215" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K215" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N215" s="2">
+        <v>4</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P215" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q215" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R215" s="2">
+        <v>16</v>
+      </c>
+      <c r="S215" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T215" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U215" t="s">
+        <v>236</v>
+      </c>
+      <c r="V215" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W215" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X215" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y215" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z215" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD215" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2024103037</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F216" s="2">
+        <v>58</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J216" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K216" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L216" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N216" s="2">
+        <v>5</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q216" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R216" s="2">
+        <v>13</v>
+      </c>
+      <c r="S216" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T216" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U216" t="s">
+        <v>236</v>
+      </c>
+      <c r="V216" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W216" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X216" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y216" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z216" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD216" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" s="2">
+        <v>2024104703</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F217" s="2">
+        <v>21</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J217" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K217" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L217" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N217" s="2">
+        <v>4</v>
+      </c>
+      <c r="O217" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P217" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R217" s="2">
+        <v>16</v>
+      </c>
+      <c r="S217" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T217" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U217" t="s">
+        <v>236</v>
+      </c>
+      <c r="V217" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W217" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X217" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y217" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z217" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA217" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB217" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC217" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD217" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" s="2">
+        <v>2024106697</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F218" s="2">
+        <v>29</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J218" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K218" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L218" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N218" s="2">
+        <v>5</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P218" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R218" s="2">
+        <v>11</v>
+      </c>
+      <c r="S218" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T218" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U218" t="s">
+        <v>230</v>
+      </c>
+      <c r="V218" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W218" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X218" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y218" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z218" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA218" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB218" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC218" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD218" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>333</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2025100442</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F219" s="2">
+        <v>33</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J219" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20251</v>
+      </c>
+      <c r="K219" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L219" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N219" s="2">
+        <v>5</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P219" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R219" s="2">
+        <v>11</v>
+      </c>
+      <c r="S219" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T219" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="U219" t="s">
+        <v>236</v>
+      </c>
+      <c r="V219" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W219" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X219" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y219" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z219" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA219" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB219" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC219" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD219" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>333</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2025103667</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F220" s="2">
+        <v>33</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J220" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20251</v>
+      </c>
+      <c r="K220" s="2">
+        <v>2115</v>
+      </c>
+      <c r="L220" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N220" s="2">
+        <v>4</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P220" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q220" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R220" s="2">
+        <v>12</v>
+      </c>
+      <c r="S220" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T220" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="U220" t="s">
+        <v>236</v>
+      </c>
+      <c r="V220" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W220" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X220" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y220" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z220" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA220" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB220" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC220" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD220" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2024101142</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F221" s="2">
+        <v>18</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J221" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K221" s="2">
+        <v>2116</v>
+      </c>
+      <c r="L221" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N221" s="2">
+        <v>5</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P221" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q221" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R221" s="2">
+        <v>13</v>
+      </c>
+      <c r="S221" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T221" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U221" t="s">
+        <v>230</v>
+      </c>
+      <c r="V221" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W221" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X221" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y221" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z221" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD221" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>335</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2023202283</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F222" s="2">
+        <v>23</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J222" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20232</v>
+      </c>
+      <c r="K222" s="2">
+        <v>2117</v>
+      </c>
+      <c r="L222" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N222" s="2">
+        <v>5</v>
+      </c>
+      <c r="O222" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P222" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R222" s="2">
+        <v>12</v>
+      </c>
+      <c r="S222" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T222" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U222" t="s">
+        <v>236</v>
+      </c>
+      <c r="V222" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W222" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X222" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y222" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z222" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD222" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2024100768</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F223" s="2">
+        <v>33</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J223" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K223" s="2">
+        <v>2117</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N223" s="2">
+        <v>5</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P223" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R223" s="2">
+        <v>13</v>
+      </c>
+      <c r="S223" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T223" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U223" t="s">
+        <v>236</v>
+      </c>
+      <c r="V223" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W223" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X223" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y223" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z223" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD223" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2024202671</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F224" s="2">
+        <v>24</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J224" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20242</v>
+      </c>
+      <c r="K224" s="2">
+        <v>2117</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N224" s="2">
+        <v>5</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P224" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R224" s="2">
+        <v>11</v>
+      </c>
+      <c r="S224" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T224" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U224" t="s">
+        <v>230</v>
+      </c>
+      <c r="V224" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W224" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X224" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y224" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z224" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA224" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB224" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC224" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD224" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>333</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2025100781</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F225" s="2">
+        <v>31</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J225" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20251</v>
+      </c>
+      <c r="K225" s="2">
+        <v>2117</v>
+      </c>
+      <c r="L225" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N225" s="2">
+        <v>4</v>
+      </c>
+      <c r="O225" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P225" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R225" s="2">
+        <v>14</v>
+      </c>
+      <c r="S225" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T225" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U225" t="s">
+        <v>236</v>
+      </c>
+      <c r="V225" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W225" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X225" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y225" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z225" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA225" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB225" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC225" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD225" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>338</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2023105124</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F226" s="2">
+        <v>19</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J226" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20231</v>
+      </c>
+      <c r="K226" s="2">
+        <v>2118</v>
+      </c>
+      <c r="L226" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N226" s="2">
+        <v>4</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P226" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q226" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R226" s="2">
+        <v>11</v>
+      </c>
+      <c r="S226" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T226" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U226" t="s">
+        <v>236</v>
+      </c>
+      <c r="V226" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W226" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X226" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y226" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z226" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD226" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>335</v>
+      </c>
+      <c r="B227" s="2">
+        <v>2023200597</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F227" s="2">
+        <v>24</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J227" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20232</v>
+      </c>
+      <c r="K227" s="2">
+        <v>2118</v>
+      </c>
+      <c r="L227" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N227" s="2">
+        <v>5</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P227" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q227" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R227" s="2">
+        <v>14</v>
+      </c>
+      <c r="S227" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T227" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U227" t="s">
+        <v>236</v>
+      </c>
+      <c r="V227" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W227" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X227" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y227" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z227" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD227" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>335</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2023200706</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F228" s="2">
+        <v>30</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J228" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20232</v>
+      </c>
+      <c r="K228" s="2">
+        <v>2118</v>
+      </c>
+      <c r="L228" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N228" s="2">
+        <v>4</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P228" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R228" s="2">
+        <v>13</v>
+      </c>
+      <c r="S228" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T228" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U228" t="s">
+        <v>236</v>
+      </c>
+      <c r="V228" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W228" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X228" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y228" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z228" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD228" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>224</v>
+      </c>
+      <c r="B229" s="2">
+        <v>2024102722</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F229" s="2">
+        <v>29</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J229" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K229" s="2">
+        <v>2118</v>
+      </c>
+      <c r="L229" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N229" s="2">
+        <v>4</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P229" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q229" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R229" s="2">
+        <v>12</v>
+      </c>
+      <c r="S229" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T229" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U229" t="s">
+        <v>230</v>
+      </c>
+      <c r="V229" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W229" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X229" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y229" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z229" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA229" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB229" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC229" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD229" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>338</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2023102978</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F230" s="2">
+        <v>31</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J230" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20231</v>
+      </c>
+      <c r="K230" s="2">
+        <v>2119</v>
+      </c>
+      <c r="L230" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N230" s="2">
+        <v>4</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P230" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R230" s="2">
+        <v>9</v>
+      </c>
+      <c r="S230" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T230" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U230" t="s">
+        <v>236</v>
+      </c>
+      <c r="V230" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W230" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X230" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y230" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z230" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA230" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB230" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC230" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD230" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>335</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2023200938</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F231" s="2">
+        <v>23</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J231" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20232</v>
+      </c>
+      <c r="K231" s="2">
+        <v>2119</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N231" s="2">
+        <v>5</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P231" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R231" s="2">
+        <v>13</v>
+      </c>
+      <c r="S231" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T231" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U231" t="s">
+        <v>236</v>
+      </c>
+      <c r="V231" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W231" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X231" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y231" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z231" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA231" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB231" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC231" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD231" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>333</v>
+      </c>
+      <c r="B232" s="2">
+        <v>2025104180</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F232" s="2">
+        <v>30</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J232" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20251</v>
+      </c>
+      <c r="K232" s="2">
+        <v>2119</v>
+      </c>
+      <c r="L232" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N232" s="2">
+        <v>4</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P232" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R232" s="2">
+        <v>12</v>
+      </c>
+      <c r="S232" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T232" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="U232" t="s">
+        <v>230</v>
+      </c>
+      <c r="V232" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W232" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X232" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y232" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z232" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA232" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB232" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC232" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD232" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2024102696</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F233" s="2">
+        <v>25</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J233" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K233" s="2">
+        <v>2120</v>
+      </c>
+      <c r="L233" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N233" s="2">
+        <v>4</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P233" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q233" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R233" s="2">
+        <v>15</v>
+      </c>
+      <c r="S233" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T233" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="U233" t="s">
+        <v>236</v>
+      </c>
+      <c r="V233" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W233" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X233" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y233" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z233" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD233" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234" s="2">
+        <v>2024201062</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F234" s="2">
+        <v>42</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J234" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20242</v>
+      </c>
+      <c r="K234" s="2">
+        <v>2121</v>
+      </c>
+      <c r="L234" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N234" s="2">
+        <v>5</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P234" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R234" s="2">
+        <v>15</v>
+      </c>
+      <c r="S234" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T234" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="U234" t="s">
+        <v>236</v>
+      </c>
+      <c r="V234" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W234" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X234" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y234" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z234" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA234" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB234" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC234" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD234" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>225</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2024201362</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F235" s="2">
+        <v>24</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J235" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20242</v>
+      </c>
+      <c r="K235" s="2">
+        <v>2121</v>
+      </c>
+      <c r="L235" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N235" s="2">
+        <v>5</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P235" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R235" s="2">
+        <v>14</v>
+      </c>
+      <c r="S235" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T235" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="U235" t="s">
+        <v>236</v>
+      </c>
+      <c r="V235" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W235" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X235" s="6">
+        <v>12</v>
+      </c>
+      <c r="Y235" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z235" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA235" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB235" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC235" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD235" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>224</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2024103219</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F236" s="2">
+        <v>19</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J236" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K236" s="2">
+        <v>59</v>
+      </c>
+      <c r="L236" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N236" s="2">
+        <v>6</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P236" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q236" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R236" s="2">
+        <v>14</v>
+      </c>
+      <c r="S236" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T236" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U236" t="s">
+        <v>236</v>
+      </c>
+      <c r="V236" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W236" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X236" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y236" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z236" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD236" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>224</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2024104485</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F237" s="2">
+        <v>34</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J237" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K237" s="2">
+        <v>59</v>
+      </c>
+      <c r="L237" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N237" s="2">
+        <v>5</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P237" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R237" s="2">
+        <v>18</v>
+      </c>
+      <c r="S237" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T237" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U237" t="s">
+        <v>236</v>
+      </c>
+      <c r="V237" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W237" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X237" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y237" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z237" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA237" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB237" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC237" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD237" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>224</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2024104951</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F238" s="2">
+        <v>21</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J238" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K238" s="2">
+        <v>59</v>
+      </c>
+      <c r="L238" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N238" s="2">
+        <v>6</v>
+      </c>
+      <c r="O238" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P238" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q238" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R238" s="2">
+        <v>13</v>
+      </c>
+      <c r="S238" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T238" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U238" t="s">
+        <v>236</v>
+      </c>
+      <c r="V238" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W238" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X238" s="6">
+        <v>13</v>
+      </c>
+      <c r="Y238" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z238" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA238" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB238" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC238" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD238" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>224</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2024105437</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F239" s="2">
+        <v>21</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J239" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20241</v>
+      </c>
+      <c r="K239" s="2">
+        <v>59</v>
+      </c>
+      <c r="L239" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N239" s="2">
+        <v>5</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P239" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q239" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R239" s="2">
+        <v>8</v>
+      </c>
+      <c r="S239" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T239" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U239" t="s">
+        <v>236</v>
+      </c>
+      <c r="V239" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W239" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X239" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y239" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z239" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD239" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>225</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2024201120</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F240" s="2">
+        <v>18</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J240" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>20242</v>
+      </c>
+      <c r="K240" s="2">
+        <v>59</v>
+      </c>
+      <c r="L240" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N240" s="2">
+        <v>4</v>
+      </c>
+      <c r="O240" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P240" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q240" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R240" s="2">
+        <v>4</v>
+      </c>
+      <c r="S240" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T240" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U240" t="s">
+        <v>236</v>
+      </c>
+      <c r="V240" s="2">
+        <v>20251</v>
+      </c>
+      <c r="W240" s="2">
+        <v>202503</v>
+      </c>
+      <c r="X240" s="6">
+        <v>9</v>
+      </c>
+      <c r="Y240" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z240" s="9">
+        <f t="shared" si="9"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA240" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB240" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC240" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD240" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE146" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE240" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/training/Data_-_consolidada.xlsx
+++ b/uploads/training/Data_-_consolidada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/Data prueba historico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1277DD5F-719D-4412-BAD0-149CA494434A}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BC33CAD-CD9A-4DBD-9BD3-180D2A9AB97C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37155" yWindow="885" windowWidth="19185" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1528,13 +1528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q243" sqref="Q243"/>
+    <sheetView tabSelected="1" topLeftCell="N207" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:AE240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="7" max="9" width="20.5703125" customWidth="1"/>

--- a/uploads/training/Data_-_consolidada.xlsx
+++ b/uploads/training/Data_-_consolidada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/Data prueba historico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BC33CAD-CD9A-4DBD-9BD3-180D2A9AB97C}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1277DD5F-719D-4412-BAD0-149CA494434A}"/>
   <bookViews>
-    <workbookView xWindow="37155" yWindow="885" windowWidth="19185" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1528,13 +1528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N207" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AE240"/>
+    <sheetView tabSelected="1" topLeftCell="N229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q243" sqref="Q243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="7" max="9" width="20.5703125" customWidth="1"/>
